--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-07-01.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-07-01.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome  do  requerente,  nacionalidade,  profissão, RL — Despachos proferidos por sentença alterando morada. despacho anterior.</t>
+          <t>Nome do requerente, nacionalidade, profissão, morada. --- PAGE 4 ---</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -510,65 +510,65 @@
           <t>31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_1.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>745767</t>
+          <t>745690</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.05.08</t>
+          <t>2025.05.09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROPORÇÃO MÉTRICA - FITNESS E</t>
+          <t>VIRGINIA ZELINDA PENAS DAMAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(531)  1.3.2 ; 5.5.20 ; 5.5.21</t>
+          <t>(531) 2.1.12 ; 2.1.23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>745690</t>
+          <t>745767</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.05.09</t>
+          <t>2025.05.08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VIRGINIA ZELINDA PENAS DAMAS</t>
+          <t>PROPORÇÃO MÉTRICA - FITNESS E SAÚDE LDA.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/07/01</t>
+          <t>--- PAGE 22 ---</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -594,45 +594,45 @@
           <t>36</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_2.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>746512</t>
+          <t>746404</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.05.22</t>
+          <t>2025.05.20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SIARHEI ZHABRAKOU</t>
+          <t>MARCIA ROSANE GUES KRUGER</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(531)  26.1.3</t>
+          <t>(531) 26.1.18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>746518</t>
+          <t>746512</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -642,46 +642,46 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MIGUEL RIBEIRO ARALA CHAVES</t>
+          <t>SIARHEI ZHABRAKOU</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(531)  7.1.24</t>
+          <t>(531) 26.1.3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>746404</t>
+          <t>746518</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.05.20</t>
+          <t>2025.05.22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MARCIA ROSANE GUES KRUGER</t>
+          <t>MIGUEL RIBEIRO ARALA CHAVES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(531)  16.1.13</t>
+          <t>(531) 16.1.13</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>:</t>
+          <t>[IMAGE: images/540_3.jpeg]</t>
         </is>
       </c>
     </row>
@@ -737,81 +737,93 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(531)  27.1.12</t>
+          <t>(531) 3.7.17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>746676</t>
+          <t>746588</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.05.25</t>
+          <t>2025.05.22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NUNO FERNANDO RODRIGUES FERREIRA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>OASISTRANSITION, LDA.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(550) Tridimensional</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>746588</t>
+          <t>746624</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.05.22</t>
+          <t>2025.05.23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OASISTRANSITION, LDA.</t>
+          <t>FERNANDO JOSÉ GÓIS  CARVALHO ANDRÉ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(531) 27.1.12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>746624</t>
+          <t>746676</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.05.23</t>
+          <t>2025.05.25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FERNANDO JOSÉ GÓIS  CARVALHO</t>
+          <t>NUNO FERNANDO RODRIGUES FERREIRA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(531) 26.2.3 ; 26.4.3 ; 26.4.12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -826,7 +838,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADEGA COOPERATIVA DE PONTE DA BARCA E ARCOS DE VALDEVEZ, CRL</t>
+          <t>ADEGA COOPERATIVA DE PONTE DA BARCA E ARCOS DE VALDEVEZ, CRL --- PAGE 24 ---</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -834,17 +846,17 @@
           <t>33</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>(511)  33  BEBIDAS ALCOÓLICAS EXCETO CERVEJA.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_4.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>747514</t>
+          <t>747429</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -854,25 +866,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SABOR DE PETALAS WINE UNIP LDA</t>
+          <t>POLYLANEMA, LDA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>:</t>
-        </is>
-      </c>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>POLYLANEMA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>747429</t>
+          <t>747431</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -882,7 +894,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>POLYLANEMA, LDA</t>
+          <t>TECNOLANEMA, LDA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -892,7 +904,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POLYLANEMA</t>
+          <t>TECNOLANEMA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -900,31 +912,35 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>747567</t>
+          <t>747466</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.06</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EGILSON CABRAL CONSULTORIA</t>
+          <t>QUINTA DO PERDIGÃO, SOCIEDADE UNIPESSOAL LDA.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DONA AUGUSTA SOUSA</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>747431</t>
+          <t>747514</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -934,17 +950,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TECNOLANEMA, LDA</t>
+          <t>SABOR DE PETALAS WINE UNIP LDA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TECNOLANEMA</t>
+          <t>ANYWAY</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -952,18 +968,30 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>747466</t>
+          <t>747567</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025.06.06</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+          <t>2025.06.10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EGILSON CABRAL CONSULTORIA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(531) 27.5.10 ; 29.1.2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -978,7 +1006,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CESPU - COOPERATIVA DE ENSINO SUPERIOR POLITÉCNICO E UNIVERSITÁRIO, CRL</t>
+          <t>CESPU - COOPERATIVA DE ENSINO SUPERIOR POLITÉCNICO E UNIVERSITÁRIO, CRL --- PAGE 25 ---</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -989,7 +1017,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(531)  2.9.10 ; 29.1.98</t>
+          <t>[IMAGE: images/540_5.jpeg]</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1034,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>XEUS INTERNATIONAL, UNIPESSOAL,</t>
+          <t>XEUS INTERNATIONAL, UNIPESSOAL, LDA.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1014,7 +1042,11 @@
           <t>33</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>XEUS</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1041,7 +1073,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(531)  5.1.1 ; 7.1.24</t>
+          <t>(531) 5.1.1 ; 7.1.24</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1101,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(531)  2.1.95 ; 2.9.14</t>
+          <t>[IMAGE: images/540_6.jpeg]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1118,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A ROCHA - ASSOCIAÇÃO CRISTÃ DE</t>
+          <t>A ROCHA - ASSOCIAÇÃO CRISTÃ DE ESTUDO E DEFESA DO AMBIENTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1097,7 +1129,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(531)  5.3.13 ; 24.13.1 ; 29.1.2 ; 29.1.3</t>
+          <t>(531) 5.3.13 ; 24.13.1 ; 29.1.2 ; 29.1.3</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1156,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>--- PAGE 27 ---</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1132,7 +1164,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>747648</t>
+          <t>747645</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1142,25 +1174,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BASTOVILLA UNIPESSOAL LDA.</t>
+          <t>AVRORA DIVITIAE - UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MISS MIRTILO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_7.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>747645</t>
+          <t>747646</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1170,25 +1202,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AVRORA DIVITIAE - UNIPESSOAL LDA</t>
+          <t>ANNE CHRISTOPHE BEATRICE DOE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(531)  26.3.1 ; 26.11.9</t>
+          <t>(531) 2.1.3 ; 7.15.1 ; 11.1.2 ; 11.3.18</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>747646</t>
+          <t>747648</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1198,17 +1230,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ANNE CHRISTOPHE BEATRICE DOE</t>
+          <t>BASTOVILLA UNIPESSOAL LDA.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>MISS MIRTILO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1254,7 +1286,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ORLANDO HÉLDER DOS SANTOS</t>
+          <t>ORLANDO HÉLDER DOS SANTOS RANHADA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1264,7 +1296,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/07/01</t>
+          <t>--- PAGE 28 ---</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1272,7 +1304,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>747655</t>
+          <t>747653</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1282,21 +1314,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TIAGO PEREIRA CERQUEIRA</t>
+          <t>TANIA GRACINDA MOREIRA LOPES</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_8.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>747653</t>
+          <t>747654</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1306,21 +1342,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TANIA GRACINDA MOREIRA LOPES</t>
+          <t>DULCE VANESSA FERREIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(531) 1.1.9 ; 9.1.7 ; 27.7.17</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>747656</t>
+          <t>747655</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1330,21 +1370,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RICHEMONT INTERNATIONAL SA</t>
+          <t>TIAGO PEREIRA CERQUEIRA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(531) 27.3.15 ; 27.5.10</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>747654</t>
+          <t>747656</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1354,20 +1398,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DULCE VANESSA FERREIRA DOS</t>
+          <t>RICHEMONT INTERNATIONAL SA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>(591)</t>
-        </is>
-      </c>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>--- PAGE 29 ---</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1390,41 +1434,45 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>URIACH, ADICIONANDO VIDA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_9.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>747676</t>
+          <t>747658</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025.06.10</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BRUNO MIGUEL NETO MATEUS</t>
+          <t>A2CS - MALHAS, LDA.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(531) 27.5.2 ; 27.5.17 ; 27.99.3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>747658</t>
+          <t>747659</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1434,43 +1482,47 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A2CS - MALHAS, LDA.</t>
+          <t>CRYO INTERNATIONAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>07  GRUAS MÓVEIS;  GRUAS DE LANÇA.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(531) 1.13.15 ; 29.1.14</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>747659</t>
+          <t>747676</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025.06.12</t>
+          <t>2025.06.10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CRYO INTERNATIONAL</t>
+          <t>BRUNO MIGUEL NETO MATEUS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WESTGMC</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1494,12 +1546,12 @@
           <t>21</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>THE 100'S</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_10.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1525,7 +1577,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>(531)  27.5.10</t>
+          <t>(531) 27.5.10</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1594,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AVIPAREDES - COMÉRCIO DE CARNES,</t>
+          <t>AVIPAREDES - COMÉRCIO DE CARNES, LDA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1553,7 +1605,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>(531)  3.7.3 ; 29.1.1 ; 29.1.98</t>
+          <t>(531) 3.7.3 ; 29.1.1 ; 29.1.98</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1633,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>(531)  1.5.12 ; 18.5.1</t>
+          <t>[IMAGE: images/540_11.jpeg]</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1650,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALFACOMER - EQUIP. AGRÍCOLAS E</t>
+          <t>ALFACOMER - EQUIP. AGRÍCOLAS E IND., LDA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1626,7 +1678,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SILVA SALGADO, COMÉRCIO DE</t>
+          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1682,7 +1734,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SILVA SALGADO, COMÉRCIO DE</t>
+          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1720,7 +1772,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MNA</t>
+          <t>--- PAGE 38 ---</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1728,35 +1780,35 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>747711</t>
+          <t>747708</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025.06.12</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PSICALMA UNIPESSOAL LDA</t>
+          <t>ARE&amp;BE, LDA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>CUIDADOS</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_12.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>747708</t>
+          <t>747709</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1766,53 +1818,53 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARE&amp;BE, LDA</t>
+          <t>ELIANA CRISTINA DE SOUSA PEREIRA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>MORADO</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(531) 26.2.7</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>747709</t>
+          <t>747710</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.12</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ELIANA CRISTINA DE SOUSA PEREIRA</t>
+          <t>NECESSARYNEURON LDA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>(531)  26.2.7</t>
-        </is>
-      </c>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SLOW AGE CLINIC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>747710</t>
+          <t>747711</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1822,17 +1874,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NECESSARYNEURON LDA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>PSICALMA UNIPESSOAL LDA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>--- PAGE 39 ---</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>747719</t>
+          <t>747717</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1842,25 +1902,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>JUMPSTART - LDA</t>
+          <t>MEDEIROS, FERNANDES DE ALMEIDA, HEITOR &amp; ASSOCIADOS, SOCIEDADE DE ADVOGADOS, SP, RL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>(531)  3.13.1 ; 3.13.24 ; 24.11.7 ; 29.1.4 ; 29.1.97</t>
+          <t>[IMAGE: images/540_13.jpeg]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>747717</t>
+          <t>747718</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1870,25 +1930,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEDEIROS, FERNANDES DE ALMEIDA,</t>
+          <t>ANA RITA FREITAS OLIVEIRA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>MFA LEGAL &amp; TECH</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(531) 27.5.1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>747718</t>
+          <t>747719</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1898,18 +1958,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ANA RITA FREITAS OLIVEIRA</t>
+          <t>JUMPSTART - LDA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>(531)  27.5.1</t>
+          <t>(531) 27.5.10</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1997,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>(531)  26.3.1 ; 27.5.17</t>
+          <t>(531) 26.3.1 ; 27.5.17</t>
         </is>
       </c>
     </row>
@@ -1954,7 +2014,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AIDA MARGARIDA NETO RODRIGUES</t>
+          <t>AIDA MARGARIDA NETO RODRIGUES --- PAGE 40 ---</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1965,7 +2025,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>(531)  2.9.26 ; 5.1.5 ; 5.1.16 ; 29.1.4</t>
+          <t>[IMAGE: images/540_14.jpeg]</t>
         </is>
       </c>
     </row>
@@ -1982,7 +2042,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IOLANDA MARINA DE MOURA GOMES</t>
+          <t>IOLANDA MARINA DE MOURA GOMES MARQUES PT ADRIANA DE MOURA GOMES MARQUES PRATES</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1990,12 +2050,12 @@
           <t>30</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>40 de 86</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(531) 26.1.3 ; 26.1.20 ; 29.1.7</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2021,7 +2081,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>(531)  26.11.13 ; 29.1.3</t>
+          <t>(531) 26.11.13 ; 29.1.3</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2109,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>(531)  26.1.3 ; 26.1.20 ; 29.1.7</t>
+          <t>(531) 20.5.25 ; 27.3.15 ; 29.1.3 ; 29.1.4</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2135,16 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_15.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>747738</t>
+          <t>747735</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2090,25 +2154,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MARIA BEATRIZ RODRIGUES MONTEIRO E OU CARTÃO, ADESIVOS</t>
+          <t>INÊS MATOS DUARTE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>MNA</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(531) 3.9.15 ; 9.1.5</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>747835</t>
+          <t>747738</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2118,17 +2182,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PATRÍCIA MARIA COELHO COSTA</t>
+          <t>MARIA BEATRIZ RODRIGUES MONTEIRO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BOLO DA TERRA</t>
+          <t>COTYPE ATELIER</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2136,7 +2200,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>747836</t>
+          <t>747835</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2146,17 +2210,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FOOTBALL DREAM FACTORY, LDA.</t>
+          <t>PATRÍCIA MARIA COELHO COSTA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>(591)  #000000; #8CA5DE;</t>
+          <t>BOLO DA TERRA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -2164,7 +2228,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>747735</t>
+          <t>747836</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2174,20 +2238,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>INÊS MATOS DUARTE</t>
+          <t>FOOTBALL DREAM FACTORY, LDA.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>(531)  3.9.15 ; 9.1.5</t>
-        </is>
-      </c>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>--- PAGE 42 ---</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2211,61 +2275,65 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[IMAGE: images/540_16.jpeg]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>748149</t>
+          <t>748027</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025.06.23</t>
+          <t>2025.06.17</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GABRIEL SANTOS CHAVES</t>
+          <t>FÁBIO MANUEL DA SILVA FELICIDADE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>COZINHA;</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(531) 4.5.7 ; 26.1.98</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>748027</t>
+          <t>748149</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025.06.17</t>
+          <t>2025.06.23</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FÁBIO MANUEL DA SILVA FELICIDADE</t>
+          <t>GABRIEL SANTOS CHAVES</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>05</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>(531)  4.5.7 ; 26.1.98</t>
+          <t>(531) 6.6.25 ; 24.3.7 ; 27.5.3</t>
         </is>
       </c>
     </row>
@@ -2282,21 +2350,21 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TELETEJO - ENERGIA E COMUNICAÇÕES S.A. LOG</t>
+          <t>TELETEJO - ENERGIA E COMUNICAÇÕES S.A.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>(531)  26.4.5 ; 26.4.18 ; 26.4.98 ; 27.5.10 ; 27.99.1 ; 29.1.4</t>
+          <t>[IMAGE: images/540_17.jpeg]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>58217</t>
+          <t>58216</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2306,17 +2374,21 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RICARDO NUNO MURZELO TEIXEIRA</t>
+          <t>ALAÇO - REVESTIMENTOS METÁLICOS, S.A.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(531) 26.4.5 ; 26.4.18 ; 26.4.98 ; 27.5.10 ; 27.99.1 ; 29.1.4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>58216</t>
+          <t>58217</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2326,13 +2398,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ALAÇO - REVESTIMENTOS METÁLICOS, S.A. LOG</t>
+          <t>RICARDO NUNO MURZELO TEIXEIRA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BOLETIM DA PROPRIEDADE INDUSTRIAL N.º 2025/07/01</t>
+          <t>VOU PRA CASA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>

--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-07-01.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-07-01.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome do requerente, nacionalidade, profissão, morada. --- PAGE 4 ---</t>
+          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -538,12 +538,12 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(531) 2.1.12 ; 2.1.23</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>--- PAGE 22 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -622,12 +622,12 @@
           <t>43</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(531) 26.1.18</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADEGA COOPERATIVA DE PONTE DA BARCA E ARCOS DE VALDEVEZ, CRL --- PAGE 24 ---</t>
+          <t>ADEGA COOPERATIVA DE PONTE DA BARCA E ARCOS DE VALDEVEZ, CRL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>QUINTA DO PERDIGÃO, SOCIEDADE UNIPESSOAL LDA.</t>
+          <t>QUINTA DO PERDIGÃO, SOCIEDADE UNIPESSOAL LDA. E INDUSTRIAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CESPU - COOPERATIVA DE ENSINO SUPERIOR POLITÉCNICO E UNIVERSITÁRIO, CRL --- PAGE 25 ---</t>
+          <t>CESPU - COOPERATIVA DE ENSINO SUPERIOR POLITÉCNICO E UNIVERSITÁRIO, CRL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>--- PAGE 27 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1210,12 +1210,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>(531) 2.1.3 ; 7.15.1 ; 11.1.2 ; 11.3.18</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>--- PAGE 28 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1350,12 +1350,12 @@
           <t>25</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>(531) 1.1.9 ; 9.1.7 ; 27.7.17</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>--- PAGE 29 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>--- PAGE 38 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NECESSARYNEURON LDA</t>
+          <t>NECESSARYNEURON LDA E INDUSTRIAL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>--- PAGE 39 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AIDA MARGARIDA NETO RODRIGUES --- PAGE 40 ---</t>
+          <t>AIDA MARGARIDA NETO RODRIGUES</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>--- PAGE 42 ---</t>
+          <t>BOLETIM DA PROPRIEDADE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2378,12 +2378,12 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>(531) 26.4.5 ; 26.4.18 ; 26.4.98 ; 27.5.10 ; 27.99.1 ; 29.1.4</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>E INDUSTRIAL N.º 2025/07/01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
